--- a/dataCleaner/Case-MovingDataInRoom/results/tag0_02-14-1_dataByMinute.xlsx
+++ b/dataCleaner/Case-MovingDataInRoom/results/tag0_02-14-1_dataByMinute.xlsx
@@ -3015,13 +3015,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E131" t="n">
         <v>1.971231411862991</v>
@@ -3035,13 +3035,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>0.5006944444444444</v>
+        <v>0.5423611111111111</v>
       </c>
       <c r="E132" t="n">
         <v>1.971231411862991</v>
@@ -3055,13 +3055,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C133" t="n">
         <v>2</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>0.5013888888888889</v>
+        <v>0.5430555555555555</v>
       </c>
       <c r="E133" t="n">
         <v>1.971231411862991</v>
@@ -3075,13 +3075,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C134" t="n">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>0.5020833333333333</v>
+        <v>0.54375</v>
       </c>
       <c r="E134" t="n">
         <v>1.971231411862991</v>
@@ -3095,13 +3095,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>0.5027777777777778</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="E135" t="n">
         <v>1.971231411862991</v>
@@ -3115,13 +3115,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="n">
         <v>5</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>0.5034722222222222</v>
+        <v>0.5451388888888888</v>
       </c>
       <c r="E136" t="n">
         <v>1.971231411862991</v>
@@ -3135,13 +3135,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C137" t="n">
         <v>6</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>0.5041666666666667</v>
+        <v>0.5458333333333333</v>
       </c>
       <c r="E137" t="n">
         <v>1.971231411862991</v>
@@ -3155,13 +3155,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C138" t="n">
         <v>7</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>0.5048611111111111</v>
+        <v>0.5465277777777777</v>
       </c>
       <c r="E138" t="n">
         <v>1.971231411862991</v>
